--- a/exceltestdata/TC017.xlsx
+++ b/exceltestdata/TC017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2086357-652D-4997-9693-E0295505E0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77DEEE6-4512-4EC9-9C3D-1E7714631985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,31 +25,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>AccountTitle</t>
-  </si>
-  <si>
-    <t>Salesforce Automation by KSK</t>
-  </si>
-  <si>
-    <t>Salesforce Automation by  Sankarakarthikeyan</t>
-  </si>
-  <si>
-    <t>VerifyText</t>
-  </si>
-  <si>
-    <t>Perception Analysis</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Woods Lane</t>
+  </si>
+  <si>
+    <t>Trichy</t>
+  </si>
+  <si>
+    <t>Tamilnadu</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>620014</t>
+  </si>
+  <si>
+    <t>Clive Building</t>
+  </si>
+  <si>
+    <t>620015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,42 +385,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/exceltestdata/TC017.xlsx
+++ b/exceltestdata/TC017.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77DEEE6-4512-4EC9-9C3D-1E7714631985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3D4C05-27B7-4948-A046-35965B886367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,58 +25,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Zipcode</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Woods Lane</t>
-  </si>
-  <si>
-    <t>Trichy</t>
-  </si>
-  <si>
-    <t>Tamilnadu</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>620014</t>
-  </si>
-  <si>
-    <t>Clive Building</t>
-  </si>
-  <si>
-    <t>620015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>hari.radhakrishnan@qeagle.com</t>
+  </si>
+  <si>
+    <t>Testleaf$321</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>DashboardName</t>
+  </si>
+  <si>
+    <t>Sankar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,9 +78,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,68 +359,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85779E6-435C-45E7-AF74-E76171F1D0D4}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>